--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N2">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O2">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P2">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q2">
-        <v>54.38112856301112</v>
+        <v>84.25206743589</v>
       </c>
       <c r="R2">
-        <v>489.4301570671</v>
+        <v>758.26860692301</v>
       </c>
       <c r="S2">
-        <v>0.0002803272522505432</v>
+        <v>0.0009161709764828411</v>
       </c>
       <c r="T2">
-        <v>0.0002803272522505432</v>
+        <v>0.0009161709764828411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.574625</v>
       </c>
       <c r="O3">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P3">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q3">
-        <v>110.2955711708333</v>
+        <v>146.030865541875</v>
       </c>
       <c r="R3">
-        <v>992.6601405374998</v>
+        <v>1314.277789876875</v>
       </c>
       <c r="S3">
-        <v>0.0005685585279073132</v>
+        <v>0.001587963889217774</v>
       </c>
       <c r="T3">
-        <v>0.0005685585279073132</v>
+        <v>0.001587963889217774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N4">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O4">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P4">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q4">
-        <v>1535.674704061678</v>
+        <v>3403.960491095369</v>
       </c>
       <c r="R4">
-        <v>13821.0723365551</v>
+        <v>30635.64441985833</v>
       </c>
       <c r="S4">
-        <v>0.007916192280589915</v>
+        <v>0.03701523181504006</v>
       </c>
       <c r="T4">
-        <v>0.007916192280589913</v>
+        <v>0.03701523181504006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N5">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O5">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P5">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q5">
-        <v>59.75620226637778</v>
+        <v>65.72500273323</v>
       </c>
       <c r="R5">
-        <v>537.8058203974</v>
+        <v>591.52502459907</v>
       </c>
       <c r="S5">
-        <v>0.0003080350192962939</v>
+        <v>0.0007147045973591146</v>
       </c>
       <c r="T5">
-        <v>0.0003080350192962939</v>
+        <v>0.0007147045973591145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.40412133333334</v>
+        <v>65.38769933333333</v>
       </c>
       <c r="N6">
-        <v>208.212364</v>
+        <v>196.163098</v>
       </c>
       <c r="O6">
-        <v>0.5523412462518597</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="P6">
-        <v>0.5523412462518598</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="Q6">
-        <v>2171.698912463511</v>
+        <v>2708.92509080139</v>
       </c>
       <c r="R6">
-        <v>19545.2902121716</v>
+        <v>24380.32581721251</v>
       </c>
       <c r="S6">
-        <v>0.01119480976090799</v>
+        <v>0.02945730141930209</v>
       </c>
       <c r="T6">
-        <v>0.01119480976090799</v>
+        <v>0.02945730141930209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N7">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O7">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P7">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q7">
-        <v>295.8528106421471</v>
+        <v>346.195536894834</v>
       </c>
       <c r="R7">
-        <v>2662.675295779324</v>
+        <v>3115.759832053506</v>
       </c>
       <c r="S7">
-        <v>0.001525080623911958</v>
+        <v>0.003764587775039339</v>
       </c>
       <c r="T7">
-        <v>0.001525080623911958</v>
+        <v>0.00376458777503934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>10.574625</v>
       </c>
       <c r="O8">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P8">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q8">
-        <v>600.047398693875</v>
+        <v>600.0473986938749</v>
       </c>
       <c r="R8">
-        <v>5400.426588244875</v>
+        <v>5400.426588244874</v>
       </c>
       <c r="S8">
-        <v>0.003093161965203363</v>
+        <v>0.006525015087797991</v>
       </c>
       <c r="T8">
-        <v>0.003093161965203364</v>
+        <v>0.006525015087797992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N9">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O9">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P9">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q9">
-        <v>8354.620241142307</v>
+        <v>13987.02685462612</v>
       </c>
       <c r="R9">
-        <v>75191.58217028077</v>
+        <v>125883.2416916351</v>
       </c>
       <c r="S9">
-        <v>0.04306692041307122</v>
+        <v>0.1520972534145288</v>
       </c>
       <c r="T9">
-        <v>0.04306692041307123</v>
+        <v>0.1520972534145289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N10">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O10">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P10">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q10">
-        <v>325.0951361431181</v>
+        <v>270.066994213038</v>
       </c>
       <c r="R10">
-        <v>2925.856225288062</v>
+        <v>2430.602947917342</v>
       </c>
       <c r="S10">
-        <v>0.00167582079745589</v>
+        <v>0.002936753356138353</v>
       </c>
       <c r="T10">
-        <v>0.00167582079745589</v>
+        <v>0.002936753356138353</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.40412133333334</v>
+        <v>65.38769933333333</v>
       </c>
       <c r="N11">
-        <v>208.212364</v>
+        <v>196.163098</v>
       </c>
       <c r="O11">
-        <v>0.5523412462518597</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="P11">
-        <v>0.5523412462518598</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="Q11">
-        <v>11814.81966444221</v>
+        <v>11131.09511444913</v>
       </c>
       <c r="R11">
-        <v>106333.3769799799</v>
+        <v>100179.8560300422</v>
       </c>
       <c r="S11">
-        <v>0.06090377342079534</v>
+        <v>0.1210413772705128</v>
       </c>
       <c r="T11">
-        <v>0.06090377342079536</v>
+        <v>0.1210413772705128</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N12">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O12">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P12">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q12">
-        <v>1049.672724105424</v>
+        <v>497.3862345603333</v>
       </c>
       <c r="R12">
-        <v>9447.054516948816</v>
+        <v>4476.476111043</v>
       </c>
       <c r="S12">
-        <v>0.005410918792718103</v>
+        <v>0.005408660535873655</v>
       </c>
       <c r="T12">
-        <v>0.005410918792718104</v>
+        <v>0.005408660535873655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.574625</v>
       </c>
       <c r="O13">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P13">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q13">
-        <v>2128.941706561041</v>
+        <v>862.1004154791665</v>
       </c>
       <c r="R13">
-        <v>19160.47535904937</v>
+        <v>7758.903739312499</v>
       </c>
       <c r="S13">
-        <v>0.01097440223422965</v>
+        <v>0.009374623122178197</v>
       </c>
       <c r="T13">
-        <v>0.01097440223422965</v>
+        <v>0.009374623122178197</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N14">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O14">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P14">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q14">
-        <v>29641.82415016355</v>
+        <v>20095.448607791</v>
       </c>
       <c r="R14">
-        <v>266776.417351472</v>
+        <v>180859.037470119</v>
       </c>
       <c r="S14">
-        <v>0.1527995342369748</v>
+        <v>0.21852124623375</v>
       </c>
       <c r="T14">
-        <v>0.1527995342369748</v>
+        <v>0.21852124623375</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N15">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O15">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P15">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q15">
-        <v>1153.423205303012</v>
+        <v>388.0107945223333</v>
       </c>
       <c r="R15">
-        <v>10380.80884772711</v>
+        <v>3492.097150701</v>
       </c>
       <c r="S15">
-        <v>0.005945738280329361</v>
+        <v>0.004219293832449964</v>
       </c>
       <c r="T15">
-        <v>0.005945738280329362</v>
+        <v>0.004219293832449964</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.40412133333334</v>
+        <v>65.38769933333333</v>
       </c>
       <c r="N16">
-        <v>208.212364</v>
+        <v>196.163098</v>
       </c>
       <c r="O16">
-        <v>0.5523412462518597</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="P16">
-        <v>0.5523412462518598</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="Q16">
-        <v>41918.45909819675</v>
+        <v>15992.27285009922</v>
       </c>
       <c r="R16">
-        <v>377266.1318837708</v>
+        <v>143930.455650893</v>
       </c>
       <c r="S16">
-        <v>0.216083902046251</v>
+        <v>0.1739026314624781</v>
       </c>
       <c r="T16">
-        <v>0.2160839020462511</v>
+        <v>0.1739026314624781</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N17">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O17">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P17">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q17">
-        <v>75.53730388055477</v>
+        <v>49.16031053350201</v>
       </c>
       <c r="R17">
-        <v>679.8357349249929</v>
+        <v>442.4427948015181</v>
       </c>
       <c r="S17">
-        <v>0.0003893844316731064</v>
+        <v>0.000534577382803692</v>
       </c>
       <c r="T17">
-        <v>0.0003893844316731064</v>
+        <v>0.000534577382803692</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>10.574625</v>
       </c>
       <c r="O18">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P18">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q18">
-        <v>153.2044350009583</v>
+        <v>85.20767401912501</v>
       </c>
       <c r="R18">
-        <v>1378.839915008625</v>
+        <v>766.869066172125</v>
       </c>
       <c r="S18">
-        <v>0.0007897478303829737</v>
+        <v>0.0009265624012055881</v>
       </c>
       <c r="T18">
-        <v>0.0007897478303829738</v>
+        <v>0.0009265624012055881</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N19">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O19">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P19">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q19">
-        <v>2133.106278733781</v>
+        <v>1986.179803995366</v>
       </c>
       <c r="R19">
-        <v>19197.95650860403</v>
+        <v>17875.6182359583</v>
       </c>
       <c r="S19">
-        <v>0.01099587003206379</v>
+        <v>0.02159804911471856</v>
       </c>
       <c r="T19">
-        <v>0.01099587003206379</v>
+        <v>0.02159804911471856</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N20">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O20">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P20">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q20">
-        <v>83.00347066378242</v>
+        <v>38.349937782114</v>
       </c>
       <c r="R20">
-        <v>747.0312359740419</v>
+        <v>345.149440039026</v>
       </c>
       <c r="S20">
-        <v>0.0004278714964783425</v>
+        <v>0.0004170235937845795</v>
       </c>
       <c r="T20">
-        <v>0.0004278714964783426</v>
+        <v>0.0004170235937845795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>69.40412133333334</v>
+        <v>65.38769933333333</v>
       </c>
       <c r="N21">
-        <v>208.212364</v>
+        <v>196.163098</v>
       </c>
       <c r="O21">
-        <v>0.5523412462518597</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="P21">
-        <v>0.5523412462518598</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="Q21">
-        <v>3016.566316709469</v>
+        <v>1580.633006746402</v>
       </c>
       <c r="R21">
-        <v>27149.09685038522</v>
+        <v>14225.69706071762</v>
       </c>
       <c r="S21">
-        <v>0.01554998524561486</v>
+        <v>0.01718806587569839</v>
       </c>
       <c r="T21">
-        <v>0.01554998524561486</v>
+        <v>0.01718806587569839</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.737936333333334</v>
+        <v>2.033666</v>
       </c>
       <c r="N22">
-        <v>5.213809</v>
+        <v>6.100998000000001</v>
       </c>
       <c r="O22">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="P22">
-        <v>0.01383107950678262</v>
+        <v>0.01314611753252202</v>
       </c>
       <c r="Q22">
-        <v>1207.669097218805</v>
+        <v>231.9369445533174</v>
       </c>
       <c r="R22">
-        <v>10869.02187496924</v>
+        <v>2087.432500979856</v>
       </c>
       <c r="S22">
-        <v>0.006225368406228906</v>
+        <v>0.002522120862322489</v>
       </c>
       <c r="T22">
-        <v>0.006225368406228907</v>
+        <v>0.002522120862322489</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>10.574625</v>
       </c>
       <c r="O23">
-        <v>0.02805213599681367</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="P23">
-        <v>0.02805213599681368</v>
+        <v>0.02278565951215614</v>
       </c>
       <c r="Q23">
-        <v>2449.38927129425</v>
+        <v>402.0073785136667</v>
       </c>
       <c r="R23">
-        <v>22044.50344164825</v>
+        <v>3618.066406623</v>
       </c>
       <c r="S23">
-        <v>0.01262626543909037</v>
+        <v>0.004371495011756592</v>
       </c>
       <c r="T23">
-        <v>0.01262626543909037</v>
+        <v>0.004371495011756592</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>49.07777633333333</v>
+        <v>82.164378</v>
       </c>
       <c r="N24">
-        <v>147.233329</v>
+        <v>246.493134</v>
       </c>
       <c r="O24">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="P24">
-        <v>0.3905773839140027</v>
+        <v>0.5311307609875792</v>
       </c>
       <c r="Q24">
-        <v>34103.50120496345</v>
+        <v>9370.739730341073</v>
       </c>
       <c r="R24">
-        <v>306931.510844671</v>
+        <v>84336.65757306965</v>
       </c>
       <c r="S24">
-        <v>0.175798866951303</v>
+        <v>0.1018989804095416</v>
       </c>
       <c r="T24">
-        <v>0.175798866951303</v>
+        <v>0.1018989804095416</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.909715333333333</v>
+        <v>1.586462</v>
       </c>
       <c r="N25">
-        <v>5.729146</v>
+        <v>4.759386</v>
       </c>
       <c r="O25">
-        <v>0.01519815433054137</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="P25">
-        <v>0.01519815433054138</v>
+        <v>0.01025528081448967</v>
       </c>
       <c r="Q25">
-        <v>1327.036064737839</v>
+        <v>180.9339138924213</v>
       </c>
       <c r="R25">
-        <v>11943.32458264055</v>
+        <v>1628.405225031792</v>
       </c>
       <c r="S25">
-        <v>0.006840688736981486</v>
+        <v>0.001967505434757654</v>
       </c>
       <c r="T25">
-        <v>0.006840688736981487</v>
+        <v>0.001967505434757654</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>69.40412133333334</v>
+        <v>65.38769933333333</v>
       </c>
       <c r="N26">
-        <v>208.212364</v>
+        <v>196.163098</v>
       </c>
       <c r="O26">
-        <v>0.5523412462518597</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="P26">
-        <v>0.5523412462518598</v>
+        <v>0.422682181153253</v>
       </c>
       <c r="Q26">
-        <v>48228.01097272131</v>
+        <v>7457.38149467234</v>
       </c>
       <c r="R26">
-        <v>434052.0987544919</v>
+        <v>67116.43345205106</v>
       </c>
       <c r="S26">
-        <v>0.2486087757782904</v>
+        <v>0.08109280512526161</v>
       </c>
       <c r="T26">
-        <v>0.2486087757782905</v>
+        <v>0.0810928051252616</v>
       </c>
     </row>
   </sheetData>
